--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_04-03_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_04-03_end.xlsx
@@ -792,7 +792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]   They really are like those "yetis" from legend.
+    <t xml:space="preserve">[name="Meteorite"]   They really are like those 'yetis' from legend.
 </t>
   </si>
   <si>
@@ -880,7 +880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Frostleaf"]   ...the "Yeti Squadron."
+    <t xml:space="preserve">[name="Frostleaf"]   ...the 'Yeti Squadron.'
 </t>
   </si>
   <si>
